--- a/data/stats/Grayson Allen.xlsx
+++ b/data/stats/Grayson Allen.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,6 +950,56 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>@ Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P
+120-117</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4-7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
